--- a/bin/Debug/数据表/PropConfig.xlsx
+++ b/bin/Debug/数据表/PropConfig.xlsx
@@ -29,17 +29,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>物品名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>初始数量</t>
+  </si>
+  <si>
     <t>解锁等级</t>
   </si>
   <si>
-    <t>初始数量</t>
-  </si>
-  <si>
     <t>广告获得数量</t>
   </si>
   <si>
@@ -58,12 +67,21 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>Init</t>
+  </si>
+  <si>
     <t>Unlock</t>
   </si>
   <si>
-    <t>Init</t>
-  </si>
-  <si>
     <t>GetByAd</t>
   </si>
   <si>
@@ -76,16 +94,40 @@
     <t>C</t>
   </si>
   <si>
-    <t>Undo</t>
-  </si>
-  <si>
-    <t>Hint</t>
-  </si>
-  <si>
-    <t>Reset</t>
-  </si>
-  <si>
-    <t>Hole</t>
+    <t>回退</t>
+  </si>
+  <si>
+    <t>回退一个方块</t>
+  </si>
+  <si>
+    <t>props_undo</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>匹配3个相同方块</t>
+  </si>
+  <si>
+    <t>props_hint</t>
+  </si>
+  <si>
+    <t>洗牌</t>
+  </si>
+  <si>
+    <t>重设所有块的类型</t>
+  </si>
+  <si>
+    <t>props_shuffle</t>
+  </si>
+  <si>
+    <t>黑洞</t>
+  </si>
+  <si>
+    <t>匹配3个并消除已选块</t>
+  </si>
+  <si>
+    <t>props_hole</t>
   </si>
 </sst>
 </file>
@@ -754,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,16 +806,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1090,179 +1129,254 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="32.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="23.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
+    <row r="1" ht="15" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:6">
+    <row r="2" ht="15" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:6">
+    <row r="3" ht="15" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:9">
+      <c r="A5" s="3">
+        <v>10001</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>10002</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>25</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="7">
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="I8" s="1">
         <v>0</v>
       </c>
     </row>
